--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -3502,28 +3502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9923.123469801429</v>
+        <v>10181.86857061077</v>
       </c>
       <c r="AB2" t="n">
-        <v>13577.25530869381</v>
+        <v>13931.28177064938</v>
       </c>
       <c r="AC2" t="n">
-        <v>12281.46111782907</v>
+        <v>12601.69979113485</v>
       </c>
       <c r="AD2" t="n">
-        <v>9923123.469801428</v>
+        <v>10181868.57061077</v>
       </c>
       <c r="AE2" t="n">
-        <v>13577255.30869381</v>
+        <v>13931281.77064938</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.194944463467071e-07</v>
+        <v>7.489366566822989e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.49791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>12281461.11782907</v>
+        <v>12601699.79113485</v>
       </c>
     </row>
     <row r="3">
@@ -3608,28 +3608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3291.990455202835</v>
+        <v>3430.038999076</v>
       </c>
       <c r="AB3" t="n">
-        <v>4504.246573177674</v>
+        <v>4693.130681176875</v>
       </c>
       <c r="AC3" t="n">
-        <v>4074.367601983196</v>
+        <v>4245.224875815456</v>
       </c>
       <c r="AD3" t="n">
-        <v>3291990.455202835</v>
+        <v>3430038.999075999</v>
       </c>
       <c r="AE3" t="n">
-        <v>4504246.573177674</v>
+        <v>4693130.681176875</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.803433528362461e-07</v>
+        <v>1.413326125499873e-06</v>
       </c>
       <c r="AG3" t="n">
         <v>31</v>
       </c>
       <c r="AH3" t="n">
-        <v>4074367.601983196</v>
+        <v>4245224.875815457</v>
       </c>
     </row>
     <row r="4">
@@ -3714,28 +3714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2520.110098590746</v>
+        <v>2640.721314672351</v>
       </c>
       <c r="AB4" t="n">
-        <v>3448.125816302957</v>
+        <v>3613.151403137134</v>
       </c>
       <c r="AC4" t="n">
-        <v>3119.041527869851</v>
+        <v>3268.317304311434</v>
       </c>
       <c r="AD4" t="n">
-        <v>2520110.098590746</v>
+        <v>2640721.314672351</v>
       </c>
       <c r="AE4" t="n">
-        <v>3448125.816302957</v>
+        <v>3613151.403137134</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.148548097749965e-06</v>
+        <v>1.655820920544718e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.4625</v>
       </c>
       <c r="AH4" t="n">
-        <v>3119041.52786985</v>
+        <v>3268317.304311434</v>
       </c>
     </row>
     <row r="5">
@@ -3820,28 +3820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2202.164449989876</v>
+        <v>2314.312890476589</v>
       </c>
       <c r="AB5" t="n">
-        <v>3013.098553115165</v>
+        <v>3166.544997029103</v>
       </c>
       <c r="AC5" t="n">
-        <v>2725.53265611612</v>
+        <v>2864.334386786342</v>
       </c>
       <c r="AD5" t="n">
-        <v>2202164.449989876</v>
+        <v>2314312.89047659</v>
       </c>
       <c r="AE5" t="n">
-        <v>3013098.553115165</v>
+        <v>3166544.997029103</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.238267020665782e-06</v>
+        <v>1.785165498994483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.54583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2725532.65611612</v>
+        <v>2864334.386786342</v>
       </c>
     </row>
     <row r="6">
@@ -3926,28 +3926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2020.530076228206</v>
+        <v>2123.959897573416</v>
       </c>
       <c r="AB6" t="n">
-        <v>2764.578389791244</v>
+        <v>2906.095634357438</v>
       </c>
       <c r="AC6" t="n">
-        <v>2500.730908379708</v>
+        <v>2628.741945745203</v>
       </c>
       <c r="AD6" t="n">
-        <v>2020530.076228206</v>
+        <v>2123959.897573416</v>
       </c>
       <c r="AE6" t="n">
-        <v>2764578.389791244</v>
+        <v>2906095.634357438</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.294140756400348e-06</v>
+        <v>1.865716675492466e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.48333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2500730.908379707</v>
+        <v>2628741.945745203</v>
       </c>
     </row>
     <row r="7">
@@ -4032,28 +4032,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1890.937955259895</v>
+        <v>1994.453027951125</v>
       </c>
       <c r="AB7" t="n">
-        <v>2587.264732681524</v>
+        <v>2728.898621900365</v>
       </c>
       <c r="AC7" t="n">
-        <v>2340.339817843257</v>
+        <v>2468.456367459466</v>
       </c>
       <c r="AD7" t="n">
-        <v>1890937.955259895</v>
+        <v>1994453.027951125</v>
       </c>
       <c r="AE7" t="n">
-        <v>2587264.732681524</v>
+        <v>2728898.621900366</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.332654245261772e-06</v>
+        <v>1.92124020185139e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.80625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2340339.817843257</v>
+        <v>2468456.367459466</v>
       </c>
     </row>
     <row r="8">
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1793.114040932232</v>
+        <v>1887.99583533653</v>
       </c>
       <c r="AB8" t="n">
-        <v>2453.417737411902</v>
+        <v>2583.239194405206</v>
       </c>
       <c r="AC8" t="n">
-        <v>2219.266991946731</v>
+        <v>2336.698471290153</v>
       </c>
       <c r="AD8" t="n">
-        <v>1793114.040932232</v>
+        <v>1887995.835336531</v>
       </c>
       <c r="AE8" t="n">
-        <v>2453417.737411902</v>
+        <v>2583239.194405206</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.36153936190784e-06</v>
+        <v>1.962882846620583e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.32083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2219266.991946731</v>
+        <v>2336698.471290153</v>
       </c>
     </row>
     <row r="9">
@@ -4244,28 +4244,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1701.717410995173</v>
+        <v>1805.147142831831</v>
       </c>
       <c r="AB9" t="n">
-        <v>2328.364836197278</v>
+        <v>2469.881958293923</v>
       </c>
       <c r="AC9" t="n">
-        <v>2106.148964111182</v>
+        <v>2234.159890695451</v>
       </c>
       <c r="AD9" t="n">
-        <v>1701717.410995173</v>
+        <v>1805147.142831831</v>
       </c>
       <c r="AE9" t="n">
-        <v>2328364.836197278</v>
+        <v>2469881.958293923</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.38400556374367e-06</v>
+        <v>1.995271570329955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.96041666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>2106148.964111181</v>
+        <v>2234159.890695451</v>
       </c>
     </row>
     <row r="10">
@@ -4350,28 +4350,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1629.774613785573</v>
+        <v>1724.741659535891</v>
       </c>
       <c r="AB10" t="n">
-        <v>2229.929527162892</v>
+        <v>2359.867628808846</v>
       </c>
       <c r="AC10" t="n">
-        <v>2017.108182816213</v>
+        <v>2134.645174410348</v>
       </c>
       <c r="AD10" t="n">
-        <v>1629774.613785573</v>
+        <v>1724741.659535891</v>
       </c>
       <c r="AE10" t="n">
-        <v>2229929.527162892</v>
+        <v>2359867.628808846</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.401219926189307e-06</v>
+        <v>2.020088904081292e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.68958333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2017108.182816213</v>
+        <v>2134645.174410348</v>
       </c>
     </row>
     <row r="11">
@@ -4456,28 +4456,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1616.999119809363</v>
+        <v>1711.966165559681</v>
       </c>
       <c r="AB11" t="n">
-        <v>2212.449532689626</v>
+        <v>2342.387634335579</v>
       </c>
       <c r="AC11" t="n">
-        <v>2001.296454482149</v>
+        <v>2118.833446076284</v>
       </c>
       <c r="AD11" t="n">
-        <v>1616999.119809363</v>
+        <v>1711966.165559681</v>
       </c>
       <c r="AE11" t="n">
-        <v>2212449.532689626</v>
+        <v>2342387.634335579</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.403845845884404e-06</v>
+        <v>2.02387459906031e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.65</v>
       </c>
       <c r="AH11" t="n">
-        <v>2001296.454482149</v>
+        <v>2118833.446076284</v>
       </c>
     </row>
     <row r="12">
@@ -4562,28 +4562,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1624.191803579909</v>
+        <v>1719.158849330228</v>
       </c>
       <c r="AB12" t="n">
-        <v>2222.2908799433</v>
+        <v>2352.228981589254</v>
       </c>
       <c r="AC12" t="n">
-        <v>2010.198557366351</v>
+        <v>2127.735548960486</v>
       </c>
       <c r="AD12" t="n">
-        <v>1624191.803579909</v>
+        <v>1719158.849330228</v>
       </c>
       <c r="AE12" t="n">
-        <v>2222290.879943301</v>
+        <v>2352228.981589254</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403699961456899e-06</v>
+        <v>2.023664282672586e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.65208333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>2010198.55736635</v>
+        <v>2127735.548960485</v>
       </c>
     </row>
   </sheetData>
@@ -4859,28 +4859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5946.159261991733</v>
+        <v>6148.006745602664</v>
       </c>
       <c r="AB2" t="n">
-        <v>8135.797428290151</v>
+        <v>8411.974060249142</v>
       </c>
       <c r="AC2" t="n">
-        <v>7359.32834039724</v>
+        <v>7609.147062218392</v>
       </c>
       <c r="AD2" t="n">
-        <v>5946159.261991733</v>
+        <v>6148006.745602664</v>
       </c>
       <c r="AE2" t="n">
-        <v>8135797.428290151</v>
+        <v>8411974.060249142</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.851559124169731e-07</v>
+        <v>1.003042480930475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.89166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>7359328.34039724</v>
+        <v>7609147.062218391</v>
       </c>
     </row>
     <row r="3">
@@ -4965,28 +4965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2575.808329684754</v>
+        <v>2701.813749954636</v>
       </c>
       <c r="AB3" t="n">
-        <v>3524.334593318317</v>
+        <v>3696.740768298389</v>
       </c>
       <c r="AC3" t="n">
-        <v>3187.977046166552</v>
+        <v>3343.929017780105</v>
       </c>
       <c r="AD3" t="n">
-        <v>2575808.329684754</v>
+        <v>2701813.749954637</v>
       </c>
       <c r="AE3" t="n">
-        <v>3524334.593318317</v>
+        <v>3696740.768298389</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.107719030207177e-06</v>
+        <v>1.621658988993323e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.38541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3187977.046166552</v>
+        <v>3343929.017780106</v>
       </c>
     </row>
     <row r="4">
@@ -5071,28 +5071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2037.851591828093</v>
+        <v>2147.19275718856</v>
       </c>
       <c r="AB4" t="n">
-        <v>2788.278451606344</v>
+        <v>2937.883857844306</v>
       </c>
       <c r="AC4" t="n">
-        <v>2522.16906955842</v>
+        <v>2657.496345797537</v>
       </c>
       <c r="AD4" t="n">
-        <v>2037851.591828092</v>
+        <v>2147192.75718856</v>
       </c>
       <c r="AE4" t="n">
-        <v>2788278.451606344</v>
+        <v>2937883.857844306</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.260596329607704e-06</v>
+        <v>1.845465604231775e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.93958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2522169.06955842</v>
+        <v>2657496.345797537</v>
       </c>
     </row>
     <row r="5">
@@ -5177,28 +5177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1800.74505915794</v>
+        <v>1901.583549617384</v>
       </c>
       <c r="AB5" t="n">
-        <v>2463.858833205079</v>
+        <v>2601.830504531918</v>
       </c>
       <c r="AC5" t="n">
-        <v>2228.711604211577</v>
+        <v>2353.515452871438</v>
       </c>
       <c r="AD5" t="n">
-        <v>1800745.05915794</v>
+        <v>1901583.549617384</v>
       </c>
       <c r="AE5" t="n">
-        <v>2463858.833205079</v>
+        <v>2601830.504531918</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.341788814383108e-06</v>
+        <v>1.964328347566708e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.43125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2228711.604211577</v>
+        <v>2353515.452871439</v>
       </c>
     </row>
     <row r="6">
@@ -5283,28 +5283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1649.692471226704</v>
+        <v>1750.616213032169</v>
       </c>
       <c r="AB6" t="n">
-        <v>2257.182018427702</v>
+        <v>2395.270334407189</v>
       </c>
       <c r="AC6" t="n">
-        <v>2041.759734563821</v>
+        <v>2166.669095474395</v>
       </c>
       <c r="AD6" t="n">
-        <v>1649692.471226704</v>
+        <v>1750616.213032169</v>
       </c>
       <c r="AE6" t="n">
-        <v>2257182.018427702</v>
+        <v>2395270.334407189</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.391590896122667e-06</v>
+        <v>2.037236721731258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>2041759.734563821</v>
+        <v>2166669.095474395</v>
       </c>
     </row>
     <row r="7">
@@ -5389,28 +5389,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1533.254136762869</v>
+        <v>1625.760544521881</v>
       </c>
       <c r="AB7" t="n">
-        <v>2097.86595231751</v>
+        <v>2224.437300508072</v>
       </c>
       <c r="AC7" t="n">
-        <v>1897.648570201682</v>
+        <v>2012.14012656494</v>
       </c>
       <c r="AD7" t="n">
-        <v>1533254.136762869</v>
+        <v>1625760.544521881</v>
       </c>
       <c r="AE7" t="n">
-        <v>2097865.95231751</v>
+        <v>2224437.300508072</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426905099537992e-06</v>
+        <v>2.088935387047938e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.03541666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1897648.570201682</v>
+        <v>2012140.12656494</v>
       </c>
     </row>
     <row r="8">
@@ -5495,28 +5495,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1481.276396779929</v>
+        <v>1582.114797730822</v>
       </c>
       <c r="AB8" t="n">
-        <v>2026.747715376803</v>
+        <v>2164.719264234092</v>
       </c>
       <c r="AC8" t="n">
-        <v>1833.317757979524</v>
+        <v>1958.121495858159</v>
       </c>
       <c r="AD8" t="n">
-        <v>1481276.396779929</v>
+        <v>1582114.797730822</v>
       </c>
       <c r="AE8" t="n">
-        <v>2026747.715376803</v>
+        <v>2164719.264234093</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.438676500676433e-06</v>
+        <v>2.106168275486832e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.85208333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1833317.757979524</v>
+        <v>1958121.495858159</v>
       </c>
     </row>
     <row r="9">
@@ -5601,28 +5601,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1484.936276579298</v>
+        <v>1585.774677530192</v>
       </c>
       <c r="AB9" t="n">
-        <v>2031.755324380801</v>
+        <v>2169.726873238091</v>
       </c>
       <c r="AC9" t="n">
-        <v>1837.847447808404</v>
+        <v>1962.65118568704</v>
       </c>
       <c r="AD9" t="n">
-        <v>1484936.276579298</v>
+        <v>1585774.677530192</v>
       </c>
       <c r="AE9" t="n">
-        <v>2031755.324380801</v>
+        <v>2169726.873238091</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.439732908470908e-06</v>
+        <v>2.107714816756989e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.8375</v>
       </c>
       <c r="AH9" t="n">
-        <v>1837847.447808404</v>
+        <v>1962651.18568704</v>
       </c>
     </row>
   </sheetData>
@@ -5898,28 +5898,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1893.973980257078</v>
+        <v>2002.716112044987</v>
       </c>
       <c r="AB2" t="n">
-        <v>2591.41875602264</v>
+        <v>2740.20453809913</v>
       </c>
       <c r="AC2" t="n">
-        <v>2344.097387026905</v>
+        <v>2478.683262884173</v>
       </c>
       <c r="AD2" t="n">
-        <v>1893973.980257078</v>
+        <v>2002716.112044987</v>
       </c>
       <c r="AE2" t="n">
-        <v>2591418.75602264</v>
+        <v>2740204.53809913</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.208267133716012e-06</v>
+        <v>1.869338395793176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.0375</v>
       </c>
       <c r="AH2" t="n">
-        <v>2344097.387026906</v>
+        <v>2478683.262884173</v>
       </c>
     </row>
     <row r="3">
@@ -6004,28 +6004,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1198.074468345153</v>
+        <v>1291.111340955439</v>
       </c>
       <c r="AB3" t="n">
-        <v>1639.258342905041</v>
+        <v>1766.555496507573</v>
       </c>
       <c r="AC3" t="n">
-        <v>1482.809827371718</v>
+        <v>1597.957919297101</v>
       </c>
       <c r="AD3" t="n">
-        <v>1198074.468345153</v>
+        <v>1291111.340955439</v>
       </c>
       <c r="AE3" t="n">
-        <v>1639258.342905042</v>
+        <v>1766555.496507573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.505997627431679e-06</v>
+        <v>2.329964219314059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.29583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1482809.827371718</v>
+        <v>1597957.919297101</v>
       </c>
     </row>
     <row r="4">
@@ -6110,28 +6110,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1185.401797032072</v>
+        <v>1278.438669642358</v>
       </c>
       <c r="AB4" t="n">
-        <v>1621.919034935684</v>
+        <v>1749.216188538216</v>
       </c>
       <c r="AC4" t="n">
-        <v>1467.125358619084</v>
+        <v>1582.273450544467</v>
       </c>
       <c r="AD4" t="n">
-        <v>1185401.797032072</v>
+        <v>1278438.669642359</v>
       </c>
       <c r="AE4" t="n">
-        <v>1621919.034935684</v>
+        <v>1749216.188538216</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.51643840266379e-06</v>
+        <v>2.346117387333456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.13541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1467125.358619084</v>
+        <v>1582273.450544467</v>
       </c>
     </row>
   </sheetData>
@@ -6407,28 +6407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2870.686208792614</v>
+        <v>3014.901906294873</v>
       </c>
       <c r="AB2" t="n">
-        <v>3927.799516607603</v>
+        <v>4125.121796277747</v>
       </c>
       <c r="AC2" t="n">
-        <v>3552.93584344367</v>
+        <v>3731.425961685647</v>
       </c>
       <c r="AD2" t="n">
-        <v>2870686.208792614</v>
+        <v>3014901.906294873</v>
       </c>
       <c r="AE2" t="n">
-        <v>3927799.516607604</v>
+        <v>4125121.796277747</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.965803996338384e-07</v>
+        <v>1.506125947031576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.67708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>3552935.84344367</v>
+        <v>3731425.961685647</v>
       </c>
     </row>
     <row r="3">
@@ -6513,28 +6513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1642.164389377983</v>
+        <v>1746.35810017609</v>
       </c>
       <c r="AB3" t="n">
-        <v>2246.881764726749</v>
+        <v>2389.444196542822</v>
       </c>
       <c r="AC3" t="n">
-        <v>2032.442522619591</v>
+        <v>2161.398996030768</v>
       </c>
       <c r="AD3" t="n">
-        <v>1642164.389377983</v>
+        <v>1746358.10017609</v>
       </c>
       <c r="AE3" t="n">
-        <v>2246881.764726749</v>
+        <v>2389444.196542822</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.347622865007607e-06</v>
+        <v>2.03665430761706e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2032442.522619591</v>
+        <v>2161398.996030767</v>
       </c>
     </row>
     <row r="4">
@@ -6619,28 +6619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1338.208341858142</v>
+        <v>1434.380587144505</v>
       </c>
       <c r="AB4" t="n">
-        <v>1830.995690915689</v>
+        <v>1962.58279973651</v>
       </c>
       <c r="AC4" t="n">
-        <v>1656.248031993288</v>
+        <v>1775.276651831917</v>
       </c>
       <c r="AD4" t="n">
-        <v>1338208.341858142</v>
+        <v>1434380.587144505</v>
       </c>
       <c r="AE4" t="n">
-        <v>1830995.69091569</v>
+        <v>1962582.79973651</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.472638446985599e-06</v>
+        <v>2.225589602621344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.78958333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1656248.031993288</v>
+        <v>1775276.651831917</v>
       </c>
     </row>
     <row r="5">
@@ -6725,28 +6725,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1280.798405075303</v>
+        <v>1368.949274358473</v>
       </c>
       <c r="AB5" t="n">
-        <v>1752.444882661751</v>
+        <v>1873.056790956869</v>
       </c>
       <c r="AC5" t="n">
-        <v>1585.194002632353</v>
+        <v>1694.294879679662</v>
       </c>
       <c r="AD5" t="n">
-        <v>1280798.405075303</v>
+        <v>1368949.274358473</v>
       </c>
       <c r="AE5" t="n">
-        <v>1752444.882661751</v>
+        <v>1873056.790956869</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.496964932653997e-06</v>
+        <v>2.262354073685322e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.42083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1585194.002632353</v>
+        <v>1694294.879679661</v>
       </c>
     </row>
     <row r="6">
@@ -6831,28 +6831,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1288.375809882748</v>
+        <v>1376.526679165918</v>
       </c>
       <c r="AB6" t="n">
-        <v>1762.812622210804</v>
+        <v>1883.424530505921</v>
       </c>
       <c r="AC6" t="n">
-        <v>1594.572259670058</v>
+        <v>1703.673136717366</v>
       </c>
       <c r="AD6" t="n">
-        <v>1288375.809882748</v>
+        <v>1376526.679165918</v>
       </c>
       <c r="AE6" t="n">
-        <v>1762812.622210804</v>
+        <v>1883424.530505921</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.496803830099902e-06</v>
+        <v>2.262110600367018e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.42291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1594572.259670058</v>
+        <v>1703673.136717366</v>
       </c>
     </row>
   </sheetData>
@@ -7128,28 +7128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1321.34476742342</v>
+        <v>1419.524067360235</v>
       </c>
       <c r="AB2" t="n">
-        <v>1807.922204405706</v>
+        <v>1942.255453944276</v>
       </c>
       <c r="AC2" t="n">
-        <v>1635.376646651974</v>
+        <v>1756.889319392484</v>
       </c>
       <c r="AD2" t="n">
-        <v>1321344.76742342</v>
+        <v>1419524.067360234</v>
       </c>
       <c r="AE2" t="n">
-        <v>1807922.204405705</v>
+        <v>1942255.453944276</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.396378883102739e-06</v>
+        <v>2.206960054711797e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1635376.646651974</v>
+        <v>1756889.319392484</v>
       </c>
     </row>
     <row r="3">
@@ -7234,28 +7234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1116.000471733457</v>
+        <v>1206.62096003313</v>
       </c>
       <c r="AB3" t="n">
-        <v>1526.961079891735</v>
+        <v>1650.952029877135</v>
       </c>
       <c r="AC3" t="n">
-        <v>1381.230057530203</v>
+        <v>1493.387485271387</v>
       </c>
       <c r="AD3" t="n">
-        <v>1116000.471733457</v>
+        <v>1206620.96003313</v>
       </c>
       <c r="AE3" t="n">
-        <v>1526961.079891735</v>
+        <v>1650952.029877135</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.511636108048218e-06</v>
+        <v>2.389122714538334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1381230.057530203</v>
+        <v>1493387.485271387</v>
       </c>
     </row>
   </sheetData>
@@ -7531,28 +7531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6725.945066747936</v>
+        <v>6937.714292204372</v>
       </c>
       <c r="AB2" t="n">
-        <v>9202.734768079405</v>
+        <v>9492.486764947775</v>
       </c>
       <c r="AC2" t="n">
-        <v>8324.438677932925</v>
+        <v>8586.53715088965</v>
       </c>
       <c r="AD2" t="n">
-        <v>6725945.066747935</v>
+        <v>6937714.292204373</v>
       </c>
       <c r="AE2" t="n">
-        <v>9202734.768079404</v>
+        <v>9492486.764947774</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.414617120264242e-07</v>
+        <v>9.351782348230848e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.57916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>8324438.677932926</v>
+        <v>8586537.15088965</v>
       </c>
     </row>
     <row r="3">
@@ -7637,28 +7637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2748.68059827964</v>
+        <v>2867.319244922355</v>
       </c>
       <c r="AB3" t="n">
-        <v>3760.866057796085</v>
+        <v>3923.192688100353</v>
       </c>
       <c r="AC3" t="n">
-        <v>3401.934279648548</v>
+        <v>3548.768684183427</v>
       </c>
       <c r="AD3" t="n">
-        <v>2748680.59827964</v>
+        <v>2867319.244922355</v>
       </c>
       <c r="AE3" t="n">
-        <v>3760866.057796085</v>
+        <v>3923192.688100353</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.074138031189969e-06</v>
+        <v>1.565971108067007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.00833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3401934.279648548</v>
+        <v>3548768.684183428</v>
       </c>
     </row>
     <row r="4">
@@ -7743,28 +7743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2158.734948602972</v>
+        <v>2268.728730884106</v>
       </c>
       <c r="AB4" t="n">
-        <v>2953.676393343051</v>
+        <v>3104.174738843473</v>
       </c>
       <c r="AC4" t="n">
-        <v>2671.781663873244</v>
+        <v>2807.916658504744</v>
       </c>
       <c r="AD4" t="n">
-        <v>2158734.948602972</v>
+        <v>2268728.730884106</v>
       </c>
       <c r="AE4" t="n">
-        <v>2953676.39334305</v>
+        <v>3104174.738843473</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.23132531478516e-06</v>
+        <v>1.795132293611205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.30416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2671781.663873244</v>
+        <v>2807916.658504744</v>
       </c>
     </row>
     <row r="5">
@@ -7849,28 +7849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1900.056257191229</v>
+        <v>2001.746449020513</v>
       </c>
       <c r="AB5" t="n">
-        <v>2599.740795655066</v>
+        <v>2738.877802370531</v>
       </c>
       <c r="AC5" t="n">
-        <v>2351.625182876869</v>
+        <v>2477.483148951426</v>
       </c>
       <c r="AD5" t="n">
-        <v>1900056.257191229</v>
+        <v>2001746.449020513</v>
       </c>
       <c r="AE5" t="n">
-        <v>2599740.795655066</v>
+        <v>2738877.802370531</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.313882289613462e-06</v>
+        <v>1.915490975267148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.71458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2351625.182876869</v>
+        <v>2477483.148951426</v>
       </c>
     </row>
     <row r="6">
@@ -7955,28 +7955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1744.313665871577</v>
+        <v>1845.918516846289</v>
       </c>
       <c r="AB6" t="n">
-        <v>2386.646911333311</v>
+        <v>2525.667150926579</v>
       </c>
       <c r="AC6" t="n">
-        <v>2158.868679795637</v>
+        <v>2284.621022838256</v>
       </c>
       <c r="AD6" t="n">
-        <v>1744313.665871577</v>
+        <v>1845918.516846289</v>
       </c>
       <c r="AE6" t="n">
-        <v>2386646.911333311</v>
+        <v>2525667.150926579</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.36413436124808e-06</v>
+        <v>1.988752781492506e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.84166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2158868.679795637</v>
+        <v>2284621.022838255</v>
       </c>
     </row>
     <row r="7">
@@ -8061,28 +8061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1624.080365508512</v>
+        <v>1717.211123339335</v>
       </c>
       <c r="AB7" t="n">
-        <v>2222.138405457713</v>
+        <v>2349.564016960908</v>
       </c>
       <c r="AC7" t="n">
-        <v>2010.060634831668</v>
+        <v>2125.324924815967</v>
       </c>
       <c r="AD7" t="n">
-        <v>1624080.365508512</v>
+        <v>1717211.123339335</v>
       </c>
       <c r="AE7" t="n">
-        <v>2222138.405457713</v>
+        <v>2349564.016960908</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.402571213659083e-06</v>
+        <v>2.044789341611305e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.21458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2010060.634831668</v>
+        <v>2125324.924815967</v>
       </c>
     </row>
     <row r="8">
@@ -8167,28 +8167,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1526.479347637686</v>
+        <v>1627.998857757827</v>
       </c>
       <c r="AB8" t="n">
-        <v>2088.596386953833</v>
+        <v>2227.499859424904</v>
       </c>
       <c r="AC8" t="n">
-        <v>1889.263679146399</v>
+        <v>2014.910399157078</v>
       </c>
       <c r="AD8" t="n">
-        <v>1526479.347637686</v>
+        <v>1627998.857757827</v>
       </c>
       <c r="AE8" t="n">
-        <v>2088596.386953833</v>
+        <v>2227499.859424904</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.426949450791353e-06</v>
+        <v>2.080330039274202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.83541666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1889263.679146399</v>
+        <v>2014910.399157078</v>
       </c>
     </row>
     <row r="9">
@@ -8273,28 +8273,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1512.97112315145</v>
+        <v>1606.187132328294</v>
       </c>
       <c r="AB9" t="n">
-        <v>2070.11383827096</v>
+        <v>2197.656094426804</v>
       </c>
       <c r="AC9" t="n">
-        <v>1872.545078969399</v>
+        <v>1987.91488120441</v>
       </c>
       <c r="AD9" t="n">
-        <v>1512971.12315145</v>
+        <v>1606187.132328294</v>
       </c>
       <c r="AE9" t="n">
-        <v>2070113.83827096</v>
+        <v>2197656.094426804</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.431436242901587e-06</v>
+        <v>2.086871271972894e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.76666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1872545.078969399</v>
+        <v>1987914.88120441</v>
       </c>
     </row>
   </sheetData>
@@ -8570,28 +8570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1089.859046102029</v>
+        <v>1186.348159655006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1491.19322806451</v>
+        <v>1623.213890026954</v>
       </c>
       <c r="AC2" t="n">
-        <v>1348.875839280873</v>
+        <v>1468.296634557784</v>
       </c>
       <c r="AD2" t="n">
-        <v>1089859.046102029</v>
+        <v>1186348.159655006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1491193.22806451</v>
+        <v>1623213.890026954</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.486662419492799e-06</v>
+        <v>2.381982409577731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1348875.839280873</v>
+        <v>1468296.634557784</v>
       </c>
     </row>
     <row r="3">
@@ -8676,28 +8676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1081.710258174638</v>
+        <v>1178.284623073635</v>
       </c>
       <c r="AB3" t="n">
-        <v>1480.043696923103</v>
+        <v>1612.181003538195</v>
       </c>
       <c r="AC3" t="n">
-        <v>1338.790403743136</v>
+        <v>1458.316711270759</v>
       </c>
       <c r="AD3" t="n">
-        <v>1081710.258174638</v>
+        <v>1178284.623073635</v>
       </c>
       <c r="AE3" t="n">
-        <v>1480043.696923102</v>
+        <v>1612181.003538195</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.494537828408966e-06</v>
+        <v>2.394600664576698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>1338790.403743136</v>
+        <v>1458316.711270759</v>
       </c>
     </row>
   </sheetData>
@@ -8973,28 +8973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4154.880446281379</v>
+        <v>4319.374110520245</v>
       </c>
       <c r="AB2" t="n">
-        <v>5684.890726991106</v>
+        <v>5909.958215351032</v>
       </c>
       <c r="AC2" t="n">
-        <v>5142.332734801108</v>
+        <v>5345.920097956156</v>
       </c>
       <c r="AD2" t="n">
-        <v>4154880.446281379</v>
+        <v>4319374.110520246</v>
       </c>
       <c r="AE2" t="n">
-        <v>5684890.726991106</v>
+        <v>5909958.215351032</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.28137746384737e-07</v>
+        <v>1.229654699005509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.11458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5142332.734801108</v>
+        <v>5345920.097956156</v>
       </c>
     </row>
     <row r="3">
@@ -9079,28 +9079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2094.243587293631</v>
+        <v>2209.423225946683</v>
       </c>
       <c r="AB3" t="n">
-        <v>2865.436467641553</v>
+        <v>3023.030330613863</v>
       </c>
       <c r="AC3" t="n">
-        <v>2591.963232835183</v>
+        <v>2734.516558709679</v>
       </c>
       <c r="AD3" t="n">
-        <v>2094243.587293631</v>
+        <v>2209423.225946683</v>
       </c>
       <c r="AE3" t="n">
-        <v>2865436.467641553</v>
+        <v>3023030.330613863</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.218105727596326e-06</v>
+        <v>1.80869600300585e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.59375</v>
       </c>
       <c r="AH3" t="n">
-        <v>2591963.232835183</v>
+        <v>2734516.558709679</v>
       </c>
     </row>
     <row r="4">
@@ -9185,28 +9185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1693.514046660176</v>
+        <v>1800.37513163668</v>
       </c>
       <c r="AB4" t="n">
-        <v>2317.140631207243</v>
+        <v>2463.352682050441</v>
       </c>
       <c r="AC4" t="n">
-        <v>2095.995981492124</v>
+        <v>2228.25375941275</v>
       </c>
       <c r="AD4" t="n">
-        <v>1693514.046660176</v>
+        <v>1800375.13163668</v>
       </c>
       <c r="AE4" t="n">
-        <v>2317140.631207243</v>
+        <v>2463352.682050441</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.357735411459167e-06</v>
+        <v>2.016024189206929e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.85833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2095995.981492124</v>
+        <v>2228253.75941275</v>
       </c>
     </row>
     <row r="5">
@@ -9291,28 +9291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1497.200951367929</v>
+        <v>1595.914164377032</v>
       </c>
       <c r="AB5" t="n">
-        <v>2048.536393505869</v>
+        <v>2183.600166464528</v>
       </c>
       <c r="AC5" t="n">
-        <v>1853.026955248555</v>
+        <v>1975.200431279235</v>
       </c>
       <c r="AD5" t="n">
-        <v>1497200.951367929</v>
+        <v>1595914.164377032</v>
       </c>
       <c r="AE5" t="n">
-        <v>2048536.39350587</v>
+        <v>2183600.166464528</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.429416128898777e-06</v>
+        <v>2.122458814862494e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1853026.955248555</v>
+        <v>1975200.431279235</v>
       </c>
     </row>
     <row r="6">
@@ -9397,28 +9397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1387.673575677338</v>
+        <v>1478.153665373019</v>
       </c>
       <c r="AB6" t="n">
-        <v>1898.676206079213</v>
+        <v>2022.475056500682</v>
       </c>
       <c r="AC6" t="n">
-        <v>1717.469213779804</v>
+        <v>1829.452875669826</v>
       </c>
       <c r="AD6" t="n">
-        <v>1387673.575677338</v>
+        <v>1478153.665373019</v>
       </c>
       <c r="AE6" t="n">
-        <v>1898676.206079213</v>
+        <v>2022475.056500682</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.46704461831393e-06</v>
+        <v>2.178331221388843e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.07916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1717469.213779805</v>
+        <v>1829452.875669826</v>
       </c>
     </row>
     <row r="7">
@@ -9503,28 +9503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1388.90552025526</v>
+        <v>1479.385609950941</v>
       </c>
       <c r="AB7" t="n">
-        <v>1900.361807000286</v>
+        <v>2024.160657421754</v>
       </c>
       <c r="AC7" t="n">
-        <v>1718.993943314725</v>
+        <v>1830.977605204747</v>
       </c>
       <c r="AD7" t="n">
-        <v>1388905.52025526</v>
+        <v>1479385.609950941</v>
       </c>
       <c r="AE7" t="n">
-        <v>1900361.807000286</v>
+        <v>2024160.657421754</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.469065983447802e-06</v>
+        <v>2.181332631656787e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.05208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1718993.943314725</v>
+        <v>1830977.605204747</v>
       </c>
     </row>
   </sheetData>
@@ -9800,28 +9800,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5273.262423821267</v>
+        <v>5456.978966296901</v>
       </c>
       <c r="AB2" t="n">
-        <v>7215.110288191907</v>
+        <v>7466.479366608919</v>
       </c>
       <c r="AC2" t="n">
-        <v>6526.510288757489</v>
+        <v>6753.889055129089</v>
       </c>
       <c r="AD2" t="n">
-        <v>5273262.423821268</v>
+        <v>5456978.966296902</v>
       </c>
       <c r="AE2" t="n">
-        <v>7215110.288191907</v>
+        <v>7466479.366608919</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.306651089786638e-07</v>
+        <v>1.074401014269185e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6526510.288757489</v>
+        <v>6753889.055129088</v>
       </c>
     </row>
     <row r="3">
@@ -9906,28 +9906,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2407.872773171805</v>
+        <v>2533.079683287362</v>
       </c>
       <c r="AB3" t="n">
-        <v>3294.557756103418</v>
+        <v>3465.871374262562</v>
       </c>
       <c r="AC3" t="n">
-        <v>2980.129787801635</v>
+        <v>3135.093474683837</v>
       </c>
       <c r="AD3" t="n">
-        <v>2407872.773171805</v>
+        <v>2533079.683287362</v>
       </c>
       <c r="AE3" t="n">
-        <v>3294557.756103418</v>
+        <v>3465871.374262562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.142921110833598e-06</v>
+        <v>1.680599751677945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.77083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2980129.787801635</v>
+        <v>3135093.474683837</v>
       </c>
     </row>
     <row r="4">
@@ -10012,28 +10012,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1923.425402688614</v>
+        <v>2032.00064141545</v>
       </c>
       <c r="AB4" t="n">
-        <v>2631.715491498524</v>
+        <v>2780.272923126052</v>
       </c>
       <c r="AC4" t="n">
-        <v>2380.548258625796</v>
+        <v>2514.927577480456</v>
       </c>
       <c r="AD4" t="n">
-        <v>1923425.402688614</v>
+        <v>2032000.64141545</v>
       </c>
       <c r="AE4" t="n">
-        <v>2631715.491498524</v>
+        <v>2780272.923126052</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.292222988815059e-06</v>
+        <v>1.90013957527757e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.5625</v>
       </c>
       <c r="AH4" t="n">
-        <v>2380548.258625796</v>
+        <v>2514927.577480456</v>
       </c>
     </row>
     <row r="5">
@@ -10118,28 +10118,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1704.876160050925</v>
+        <v>1805.007641310094</v>
       </c>
       <c r="AB5" t="n">
-        <v>2332.686776009532</v>
+        <v>2469.691086157508</v>
       </c>
       <c r="AC5" t="n">
-        <v>2110.058424053634</v>
+        <v>2233.987235127845</v>
       </c>
       <c r="AD5" t="n">
-        <v>1704876.160050925</v>
+        <v>1805007.641310093</v>
       </c>
       <c r="AE5" t="n">
-        <v>2332686.776009532</v>
+        <v>2469691.086157508</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.369463858342204e-06</v>
+        <v>2.013717830956152e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.17708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2110058.424053634</v>
+        <v>2233987.235127844</v>
       </c>
     </row>
     <row r="6">
@@ -10224,28 +10224,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1553.815639261068</v>
+        <v>1645.673955253161</v>
       </c>
       <c r="AB6" t="n">
-        <v>2125.999107145017</v>
+        <v>2251.683707588288</v>
       </c>
       <c r="AC6" t="n">
-        <v>1923.096736217583</v>
+        <v>2036.786174793993</v>
       </c>
       <c r="AD6" t="n">
-        <v>1553815.639261068</v>
+        <v>1645673.955253161</v>
       </c>
       <c r="AE6" t="n">
-        <v>2125999.107145017</v>
+        <v>2251683.707588288</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.418672538534053e-06</v>
+        <v>2.086076364652763e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.37083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1923096.736217583</v>
+        <v>2036786.174793993</v>
       </c>
     </row>
     <row r="7">
@@ -10330,28 +10330,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1452.645567185666</v>
+        <v>1552.776958936283</v>
       </c>
       <c r="AB7" t="n">
-        <v>1987.573751222875</v>
+        <v>2124.577938901303</v>
       </c>
       <c r="AC7" t="n">
-        <v>1797.882501983444</v>
+        <v>1921.811202276427</v>
       </c>
       <c r="AD7" t="n">
-        <v>1452645.567185666</v>
+        <v>1552776.958936283</v>
       </c>
       <c r="AE7" t="n">
-        <v>1987573.751222875</v>
+        <v>2124577.938901303</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.446400030159181e-06</v>
+        <v>2.126848046178407e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.94375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1797882.501983444</v>
+        <v>1921811.202276427</v>
       </c>
     </row>
     <row r="8">
@@ -10436,28 +10436,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1447.935006717456</v>
+        <v>1548.066398468073</v>
       </c>
       <c r="AB8" t="n">
-        <v>1981.128554575009</v>
+        <v>2118.132742253437</v>
       </c>
       <c r="AC8" t="n">
-        <v>1792.05242585776</v>
+        <v>1915.981126150743</v>
       </c>
       <c r="AD8" t="n">
-        <v>1447935.006717456</v>
+        <v>1548066.398468073</v>
       </c>
       <c r="AE8" t="n">
-        <v>1981128.554575009</v>
+        <v>2118132.742253437</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.449599356115927e-06</v>
+        <v>2.131552470969828e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1792052.42585776</v>
+        <v>1915981.126150743</v>
       </c>
     </row>
   </sheetData>
@@ -10733,28 +10733,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8670.516898088939</v>
+        <v>8919.138736566771</v>
       </c>
       <c r="AB2" t="n">
-        <v>11863.38373617487</v>
+        <v>12203.55910400166</v>
       </c>
       <c r="AC2" t="n">
-        <v>10731.15904275754</v>
+        <v>11038.86855091806</v>
       </c>
       <c r="AD2" t="n">
-        <v>8670516.898088939</v>
+        <v>8919138.736566771</v>
       </c>
       <c r="AE2" t="n">
-        <v>11863383.73617487</v>
+        <v>12203559.10400166</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.589394554699322e-07</v>
+        <v>8.086582370644515e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.80416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10731159.04275754</v>
+        <v>11038868.55091806</v>
       </c>
     </row>
     <row r="3">
@@ -10839,28 +10839,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3107.671811789807</v>
+        <v>3236.316488568724</v>
       </c>
       <c r="AB3" t="n">
-        <v>4252.053673695304</v>
+        <v>4428.070995866819</v>
       </c>
       <c r="AC3" t="n">
-        <v>3846.243638872475</v>
+        <v>4005.462114857797</v>
       </c>
       <c r="AD3" t="n">
-        <v>3107671.811789807</v>
+        <v>3236316.488568724</v>
       </c>
       <c r="AE3" t="n">
-        <v>4252053.673695303</v>
+        <v>4428070.995866818</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.010237847692301e-06</v>
+        <v>1.461584343234092e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3846243.638872475</v>
+        <v>4005462.114857797</v>
       </c>
     </row>
     <row r="4">
@@ -10945,28 +10945,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2399.127083144614</v>
+        <v>2510.607769506873</v>
       </c>
       <c r="AB4" t="n">
-        <v>3282.591517175602</v>
+        <v>3435.124310437227</v>
       </c>
       <c r="AC4" t="n">
-        <v>2969.305589922369</v>
+        <v>3107.280867476218</v>
       </c>
       <c r="AD4" t="n">
-        <v>2399127.083144614</v>
+        <v>2510607.769506873</v>
       </c>
       <c r="AE4" t="n">
-        <v>3282591.517175602</v>
+        <v>3435124.310437228</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.175522759017795e-06</v>
+        <v>1.700714008706452e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.06041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2969305.589922369</v>
+        <v>3107280.867476218</v>
       </c>
     </row>
     <row r="5">
@@ -11051,28 +11051,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2105.047392307231</v>
+        <v>2207.946083461163</v>
       </c>
       <c r="AB5" t="n">
-        <v>2880.218710291397</v>
+        <v>3021.009239098248</v>
       </c>
       <c r="AC5" t="n">
-        <v>2605.334678993534</v>
+        <v>2732.688357331694</v>
       </c>
       <c r="AD5" t="n">
-        <v>2105047.392307231</v>
+        <v>2207946.083461163</v>
       </c>
       <c r="AE5" t="n">
-        <v>2880218.710291397</v>
+        <v>3021009.239098248</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.262135581767542e-06</v>
+        <v>1.826023059385474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.27083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>2605334.678993534</v>
+        <v>2732688.357331694</v>
       </c>
     </row>
     <row r="6">
@@ -11157,28 +11157,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1929.232359836393</v>
+        <v>2032.045710135751</v>
       </c>
       <c r="AB6" t="n">
-        <v>2639.660826452985</v>
+        <v>2780.33458813746</v>
       </c>
       <c r="AC6" t="n">
-        <v>2387.73530196355</v>
+        <v>2514.983357269723</v>
       </c>
       <c r="AD6" t="n">
-        <v>1929232.359836393</v>
+        <v>2032045.710135751</v>
       </c>
       <c r="AE6" t="n">
-        <v>2639660.826452985</v>
+        <v>2780334.58813746</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.318161872884102e-06</v>
+        <v>1.907080357023347e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.24166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>2387735.30196355</v>
+        <v>2514983.357269723</v>
       </c>
     </row>
     <row r="7">
@@ -11263,28 +11263,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1803.783082937444</v>
+        <v>1906.681684582823</v>
       </c>
       <c r="AB7" t="n">
-        <v>2468.015591368347</v>
+        <v>2608.805997705472</v>
       </c>
       <c r="AC7" t="n">
-        <v>2232.471647209789</v>
+        <v>2359.825214766675</v>
       </c>
       <c r="AD7" t="n">
-        <v>1803783.082937444</v>
+        <v>1906681.684582823</v>
       </c>
       <c r="AE7" t="n">
-        <v>2468015.591368346</v>
+        <v>2608805.997705472</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.355365682995623e-06</v>
+        <v>1.960905806635898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.60416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2232471.647209789</v>
+        <v>2359825.214766675</v>
       </c>
     </row>
     <row r="8">
@@ -11369,28 +11369,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1706.177488778756</v>
+        <v>1800.494184724357</v>
       </c>
       <c r="AB8" t="n">
-        <v>2334.467311385521</v>
+        <v>2463.515575737251</v>
       </c>
       <c r="AC8" t="n">
-        <v>2111.669027632337</v>
+        <v>2228.401106754714</v>
       </c>
       <c r="AD8" t="n">
-        <v>1706177.488778756</v>
+        <v>1800494.184724357</v>
       </c>
       <c r="AE8" t="n">
-        <v>2334467.311385522</v>
+        <v>2463515.575737251</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.383305303237478e-06</v>
+        <v>2.001328081048486e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>22.14583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2111669.027632337</v>
+        <v>2228401.106754714</v>
       </c>
     </row>
     <row r="9">
@@ -11475,28 +11475,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1612.753023017046</v>
+        <v>1715.566283807853</v>
       </c>
       <c r="AB9" t="n">
-        <v>2206.639835733808</v>
+        <v>2347.313474948735</v>
       </c>
       <c r="AC9" t="n">
-        <v>1996.041226849833</v>
+        <v>2123.28917137478</v>
       </c>
       <c r="AD9" t="n">
-        <v>1612753.023017046</v>
+        <v>1715566.283807853</v>
       </c>
       <c r="AE9" t="n">
-        <v>2206639.835733808</v>
+        <v>2347313.474948735</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.405215847532405e-06</v>
+        <v>2.033027654140463e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.80208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1996041.226849833</v>
+        <v>2123289.171374781</v>
       </c>
     </row>
     <row r="10">
@@ -11581,28 +11581,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1586.167148107536</v>
+        <v>1680.569095399157</v>
       </c>
       <c r="AB10" t="n">
-        <v>2170.263868796594</v>
+        <v>2299.428777800972</v>
       </c>
       <c r="AC10" t="n">
-        <v>1963.136931143116</v>
+        <v>2079.974522516206</v>
       </c>
       <c r="AD10" t="n">
-        <v>1586167.148107536</v>
+        <v>1680569.095399157</v>
       </c>
       <c r="AE10" t="n">
-        <v>2170263.868796594</v>
+        <v>2299428.777800972</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.410509670315072e-06</v>
+        <v>2.040686611397585e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.72083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1963136.931143116</v>
+        <v>2079974.522516206</v>
       </c>
     </row>
     <row r="11">
@@ -11687,28 +11687,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1592.528198115223</v>
+        <v>1686.930145406845</v>
       </c>
       <c r="AB11" t="n">
-        <v>2178.967338046833</v>
+        <v>2308.132247051211</v>
       </c>
       <c r="AC11" t="n">
-        <v>1971.009753503508</v>
+        <v>2087.847344876598</v>
       </c>
       <c r="AD11" t="n">
-        <v>1592528.198115223</v>
+        <v>1686930.145406845</v>
       </c>
       <c r="AE11" t="n">
-        <v>2178967.338046832</v>
+        <v>2308132.247051211</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.409480315885109e-06</v>
+        <v>2.0391973697087e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.73541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1971009.753503508</v>
+        <v>2087847.344876598</v>
       </c>
     </row>
   </sheetData>
@@ -11984,28 +11984,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3258.869774840981</v>
+        <v>3404.42374883797</v>
       </c>
       <c r="AB2" t="n">
-        <v>4458.92939712529</v>
+        <v>4658.082765736115</v>
       </c>
       <c r="AC2" t="n">
-        <v>4033.375433610198</v>
+        <v>4213.521884234307</v>
       </c>
       <c r="AD2" t="n">
-        <v>3258869.774840981</v>
+        <v>3404423.74883797</v>
       </c>
       <c r="AE2" t="n">
-        <v>4458929.39712529</v>
+        <v>4658082.765736115</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.367000804517147e-07</v>
+        <v>1.40662809877951e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.38125</v>
       </c>
       <c r="AH2" t="n">
-        <v>4033375.433610198</v>
+        <v>4213521.884234306</v>
       </c>
     </row>
     <row r="3">
@@ -12090,28 +12090,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1792.846568819209</v>
+        <v>1897.921496650203</v>
       </c>
       <c r="AB3" t="n">
-        <v>2453.051770266826</v>
+        <v>2596.819922103845</v>
       </c>
       <c r="AC3" t="n">
-        <v>2218.935952192343</v>
+        <v>2348.983073397905</v>
       </c>
       <c r="AD3" t="n">
-        <v>1792846.568819209</v>
+        <v>1897921.496650203</v>
       </c>
       <c r="AE3" t="n">
-        <v>2453051.770266826</v>
+        <v>2596819.922103845</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.301962204214815e-06</v>
+        <v>1.955136610124238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.45625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2218935.952192343</v>
+        <v>2348983.073397905</v>
       </c>
     </row>
     <row r="4">
@@ -12196,28 +12196,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1464.188160974142</v>
+        <v>1561.167279571937</v>
       </c>
       <c r="AB4" t="n">
-        <v>2003.366837267567</v>
+        <v>2136.057945749827</v>
       </c>
       <c r="AC4" t="n">
-        <v>1812.168318061766</v>
+        <v>1932.195573383619</v>
       </c>
       <c r="AD4" t="n">
-        <v>1464188.160974142</v>
+        <v>1561167.279571937</v>
       </c>
       <c r="AE4" t="n">
-        <v>2003366.837267567</v>
+        <v>2136057.945749828</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432094790119962e-06</v>
+        <v>2.15055471216256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.14375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1812168.318061766</v>
+        <v>1932195.573383619</v>
       </c>
     </row>
     <row r="5">
@@ -12302,28 +12302,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1317.250880266909</v>
+        <v>1406.219530486077</v>
       </c>
       <c r="AB5" t="n">
-        <v>1802.320767388612</v>
+        <v>1924.051599638311</v>
       </c>
       <c r="AC5" t="n">
-        <v>1630.309802922127</v>
+        <v>1740.422815392211</v>
       </c>
       <c r="AD5" t="n">
-        <v>1317250.880266909</v>
+        <v>1406219.530486077</v>
       </c>
       <c r="AE5" t="n">
-        <v>1802320.767388612</v>
+        <v>1924051.599638311</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.486343215295579e-06</v>
+        <v>2.232018737584403e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.29791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1630309.802922127</v>
+        <v>1740422.815392211</v>
       </c>
     </row>
     <row r="6">
@@ -12408,28 +12408,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1319.374676639794</v>
+        <v>1408.343326858961</v>
       </c>
       <c r="AB6" t="n">
-        <v>1805.226639281276</v>
+        <v>1926.957471530975</v>
       </c>
       <c r="AC6" t="n">
-        <v>1632.938342479772</v>
+        <v>1743.051354949856</v>
       </c>
       <c r="AD6" t="n">
-        <v>1319374.676639793</v>
+        <v>1408343.326858961</v>
       </c>
       <c r="AE6" t="n">
-        <v>1805226.639281276</v>
+        <v>1926957.471530975</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.488570423367305e-06</v>
+        <v>2.235363301677968e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.26458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1632938.342479772</v>
+        <v>1743051.354949855</v>
       </c>
     </row>
   </sheetData>
@@ -12705,28 +12705,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2196.267257944771</v>
+        <v>2321.912988963486</v>
       </c>
       <c r="AB2" t="n">
-        <v>3005.0297547933</v>
+        <v>3176.943787071556</v>
       </c>
       <c r="AC2" t="n">
-        <v>2718.233932581464</v>
+        <v>2873.740730901937</v>
       </c>
       <c r="AD2" t="n">
-        <v>2196267.257944771</v>
+        <v>2321912.988963487</v>
       </c>
       <c r="AE2" t="n">
-        <v>3005029.7547933</v>
+        <v>3176943.787071556</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.130508957736526e-06</v>
+        <v>1.733914438510067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2718233.932581464</v>
+        <v>2873740.730901937</v>
       </c>
     </row>
     <row r="3">
@@ -12811,28 +12811,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1336.445591009662</v>
+        <v>1430.743894914627</v>
       </c>
       <c r="AB3" t="n">
-        <v>1828.58381743772</v>
+        <v>1957.606916988053</v>
       </c>
       <c r="AC3" t="n">
-        <v>1654.06634433497</v>
+        <v>1770.775660349276</v>
       </c>
       <c r="AD3" t="n">
-        <v>1336445.591009662</v>
+        <v>1430743.894914627</v>
       </c>
       <c r="AE3" t="n">
-        <v>1828583.81743772</v>
+        <v>1957606.916988053</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.453653558672649e-06</v>
+        <v>2.229536419614528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1654066.34433497</v>
+        <v>1770775.660349276</v>
       </c>
     </row>
     <row r="4">
@@ -12917,28 +12917,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1210.977516293592</v>
+        <v>1305.190479343985</v>
       </c>
       <c r="AB4" t="n">
-        <v>1656.912862350395</v>
+        <v>1785.81919477853</v>
       </c>
       <c r="AC4" t="n">
-        <v>1498.77942425948</v>
+        <v>1615.383117241849</v>
       </c>
       <c r="AD4" t="n">
-        <v>1210977.516293592</v>
+        <v>1305190.479343985</v>
       </c>
       <c r="AE4" t="n">
-        <v>1656912.862350395</v>
+        <v>1785819.19477853</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.511322441301249e-06</v>
+        <v>2.317985880857785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1498779.424259481</v>
+        <v>1615383.117241848</v>
       </c>
     </row>
     <row r="5">
@@ -13023,28 +13023,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1216.986636903035</v>
+        <v>1311.199599953429</v>
       </c>
       <c r="AB5" t="n">
-        <v>1665.134806271927</v>
+        <v>1794.041138700062</v>
       </c>
       <c r="AC5" t="n">
-        <v>1506.216677392712</v>
+        <v>1622.820370375081</v>
       </c>
       <c r="AD5" t="n">
-        <v>1216986.636903035</v>
+        <v>1311199.599953429</v>
       </c>
       <c r="AE5" t="n">
-        <v>1665134.806271927</v>
+        <v>1794041.138700062</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51248244756102e-06</v>
+        <v>2.319765036687391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>1506216.677392712</v>
+        <v>1622820.370375081</v>
       </c>
     </row>
   </sheetData>
@@ -23629,28 +23629,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1600.976565052422</v>
+        <v>1708.332206313702</v>
       </c>
       <c r="AB2" t="n">
-        <v>2190.526766405951</v>
+        <v>2337.415490976263</v>
       </c>
       <c r="AC2" t="n">
-        <v>1981.465966243793</v>
+        <v>2114.335837100733</v>
       </c>
       <c r="AD2" t="n">
-        <v>1600976.565052422</v>
+        <v>1708332.206313702</v>
       </c>
       <c r="AE2" t="n">
-        <v>2190526.766405951</v>
+        <v>2337415.490976263</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.295113789777805e-06</v>
+        <v>2.023589749934888e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.575</v>
       </c>
       <c r="AH2" t="n">
-        <v>1981465.966243793</v>
+        <v>2114335.837100734</v>
       </c>
     </row>
     <row r="3">
@@ -23735,28 +23735,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1143.983148791447</v>
+        <v>1236.002269872544</v>
       </c>
       <c r="AB3" t="n">
-        <v>1565.248213151061</v>
+        <v>1691.152834211328</v>
       </c>
       <c r="AC3" t="n">
-        <v>1415.863120527588</v>
+        <v>1529.751581262108</v>
       </c>
       <c r="AD3" t="n">
-        <v>1143983.148791447</v>
+        <v>1236002.269872544</v>
       </c>
       <c r="AE3" t="n">
-        <v>1565248.213151061</v>
+        <v>1691152.834211328</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.516937382626579e-06</v>
+        <v>2.370184738209639e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.54375</v>
       </c>
       <c r="AH3" t="n">
-        <v>1415863.120527588</v>
+        <v>1529751.581262108</v>
       </c>
     </row>
     <row r="4">
@@ -23841,28 +23841,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1153.020572110721</v>
+        <v>1245.039693191819</v>
       </c>
       <c r="AB4" t="n">
-        <v>1577.61361443947</v>
+        <v>1703.518235499737</v>
       </c>
       <c r="AC4" t="n">
-        <v>1427.048385271981</v>
+        <v>1540.936846006502</v>
       </c>
       <c r="AD4" t="n">
-        <v>1153020.572110721</v>
+        <v>1245039.693191818</v>
       </c>
       <c r="AE4" t="n">
-        <v>1577613.61443947</v>
+        <v>1703518.235499737</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.516765957902584e-06</v>
+        <v>2.369916890459814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.54375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1427048.385271981</v>
+        <v>1540936.846006502</v>
       </c>
     </row>
   </sheetData>
@@ -24138,28 +24138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1053.085091156265</v>
+        <v>1154.913744329408</v>
       </c>
       <c r="AB2" t="n">
-        <v>1440.877480555325</v>
+        <v>1580.20393618994</v>
       </c>
       <c r="AC2" t="n">
-        <v>1303.362156095369</v>
+        <v>1429.391490350126</v>
       </c>
       <c r="AD2" t="n">
-        <v>1053085.091156265</v>
+        <v>1154913.744329408</v>
       </c>
       <c r="AE2" t="n">
-        <v>1440877.480555325</v>
+        <v>1580203.93618994</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>2.360985653330929e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1303362.156095369</v>
+        <v>1429391.490350126</v>
       </c>
     </row>
     <row r="3">
@@ -24244,28 +24244,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.255266728016</v>
+        <v>1168.083919901158</v>
       </c>
       <c r="AB3" t="n">
-        <v>1458.897495799733</v>
+        <v>1598.223951434349</v>
       </c>
       <c r="AC3" t="n">
-        <v>1319.662366376101</v>
+        <v>1445.691700630858</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066255.266728016</v>
+        <v>1168083.919901158</v>
       </c>
       <c r="AE3" t="n">
-        <v>1458897.495799733</v>
+        <v>1598223.951434349</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.448745309195979e-06</v>
+        <v>2.360985653330929e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.45833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1319662.366376101</v>
+        <v>1445691.700630858</v>
       </c>
     </row>
   </sheetData>
@@ -24541,28 +24541,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4685.130647073158</v>
+        <v>4859.201163296211</v>
       </c>
       <c r="AB2" t="n">
-        <v>6410.402444702324</v>
+        <v>6648.573404447906</v>
       </c>
       <c r="AC2" t="n">
-        <v>5798.60263243603</v>
+        <v>6014.042890058527</v>
       </c>
       <c r="AD2" t="n">
-        <v>4685130.647073158</v>
+        <v>4859201.163296212</v>
       </c>
       <c r="AE2" t="n">
-        <v>6410402.444702324</v>
+        <v>6648573.404447906</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.778115098196784e-07</v>
+        <v>1.149123794335596e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.21041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5798602.63243603</v>
+        <v>6014042.890058527</v>
       </c>
     </row>
     <row r="3">
@@ -24647,28 +24647,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2251.018019571595</v>
+        <v>2367.008166320099</v>
       </c>
       <c r="AB3" t="n">
-        <v>3079.942162284255</v>
+        <v>3238.644998189695</v>
       </c>
       <c r="AC3" t="n">
-        <v>2785.996805041703</v>
+        <v>2929.553265029152</v>
       </c>
       <c r="AD3" t="n">
-        <v>2251018.019571595</v>
+        <v>2367008.166320099</v>
       </c>
       <c r="AE3" t="n">
-        <v>3079942.162284255</v>
+        <v>3238644.998189695</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.18018086653154e-06</v>
+        <v>1.743576558368749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.1625</v>
       </c>
       <c r="AH3" t="n">
-        <v>2785996.805041703</v>
+        <v>2929553.265029151</v>
       </c>
     </row>
     <row r="4">
@@ -24753,28 +24753,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1810.696966103432</v>
+        <v>1910.178062428066</v>
       </c>
       <c r="AB4" t="n">
-        <v>2477.475471335049</v>
+        <v>2613.589896122638</v>
       </c>
       <c r="AC4" t="n">
-        <v>2241.028689509494</v>
+        <v>2364.15254463315</v>
       </c>
       <c r="AD4" t="n">
-        <v>1810696.966103432</v>
+        <v>1910178.062428066</v>
       </c>
       <c r="AE4" t="n">
-        <v>2477475.471335049</v>
+        <v>2613589.896122638</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.324664547584097e-06</v>
+        <v>1.957033975358091e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>2241028.689509494</v>
+        <v>2364152.54463315</v>
       </c>
     </row>
     <row r="5">
@@ -24859,28 +24859,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1597.958362613075</v>
+        <v>1697.439369429158</v>
       </c>
       <c r="AB5" t="n">
-        <v>2186.397128674743</v>
+        <v>2322.511430992783</v>
       </c>
       <c r="AC5" t="n">
-        <v>1977.730455341668</v>
+        <v>2100.854199684096</v>
       </c>
       <c r="AD5" t="n">
-        <v>1597958.362613075</v>
+        <v>1697439.369429158</v>
       </c>
       <c r="AE5" t="n">
-        <v>2186397.128674743</v>
+        <v>2322511.430992783</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.39913749926614e-06</v>
+        <v>2.067058884647592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.91041666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1977730.455341668</v>
+        <v>2100854.199684097</v>
       </c>
     </row>
     <row r="6">
@@ -24965,28 +24965,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1454.065006166755</v>
+        <v>1545.248906852168</v>
       </c>
       <c r="AB6" t="n">
-        <v>1989.515890258031</v>
+        <v>2114.277725925599</v>
       </c>
       <c r="AC6" t="n">
-        <v>1799.639285994893</v>
+        <v>1912.494027170684</v>
       </c>
       <c r="AD6" t="n">
-        <v>1454065.006166755</v>
+        <v>1545248.906852168</v>
       </c>
       <c r="AE6" t="n">
-        <v>1989515.890258031</v>
+        <v>2114277.725925599</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.44822194469294e-06</v>
+        <v>2.139575302133854e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.13333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1799639.285994893</v>
+        <v>1912494.027170684</v>
       </c>
     </row>
     <row r="7">
@@ -25071,28 +25071,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1412.996444876772</v>
+        <v>1512.392110838283</v>
       </c>
       <c r="AB7" t="n">
-        <v>1933.324072884022</v>
+        <v>2069.321608079864</v>
       </c>
       <c r="AC7" t="n">
-        <v>1748.810336805349</v>
+        <v>1871.828458115839</v>
       </c>
       <c r="AD7" t="n">
-        <v>1412996.444876772</v>
+        <v>1512392.110838283</v>
       </c>
       <c r="AE7" t="n">
-        <v>1933324.072884022</v>
+        <v>2069321.608079864</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.457761868255516e-06</v>
+        <v>2.153669402084162e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.98958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1748810.336805349</v>
+        <v>1871828.458115839</v>
       </c>
     </row>
     <row r="8">
@@ -25177,28 +25177,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1417.476925002512</v>
+        <v>1516.872590964023</v>
       </c>
       <c r="AB8" t="n">
-        <v>1939.454463456893</v>
+        <v>2075.451998652735</v>
       </c>
       <c r="AC8" t="n">
-        <v>1754.355651506002</v>
+        <v>1877.373772816492</v>
       </c>
       <c r="AD8" t="n">
-        <v>1417476.925002512</v>
+        <v>1516872.590964023</v>
       </c>
       <c r="AE8" t="n">
-        <v>1939454.463456893</v>
+        <v>2075451.998652735</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.459300565604319e-06</v>
+        <v>2.155942644011631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.96666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1754355.651506003</v>
+        <v>1877373.772816492</v>
       </c>
     </row>
   </sheetData>
@@ -25474,28 +25474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7617.399484897301</v>
+        <v>7847.511339887237</v>
       </c>
       <c r="AB2" t="n">
-        <v>10422.46203118472</v>
+        <v>10737.31122300053</v>
       </c>
       <c r="AC2" t="n">
-        <v>9427.756882945388</v>
+        <v>9712.557309787902</v>
       </c>
       <c r="AD2" t="n">
-        <v>7617399.484897301</v>
+        <v>7847511.339887237</v>
       </c>
       <c r="AE2" t="n">
-        <v>10422462.03118472</v>
+        <v>10737311.22300053</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.997674114782726e-07</v>
+        <v>8.709636515326453e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.50833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9427756.882945389</v>
+        <v>9712557.309787903</v>
       </c>
     </row>
     <row r="3">
@@ -25580,28 +25580,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2916.294669740425</v>
+        <v>3044.229412351024</v>
       </c>
       <c r="AB3" t="n">
-        <v>3990.203024979692</v>
+        <v>4165.248983902028</v>
       </c>
       <c r="AC3" t="n">
-        <v>3609.383648560598</v>
+        <v>3767.723466841927</v>
       </c>
       <c r="AD3" t="n">
-        <v>2916294.669740424</v>
+        <v>3044229.412351024</v>
       </c>
       <c r="AE3" t="n">
-        <v>3990203.024979691</v>
+        <v>4165248.983902028</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.042364623656924e-06</v>
+        <v>1.513689609462175e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.63333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3609383.648560598</v>
+        <v>3767723.466841927</v>
       </c>
     </row>
     <row r="4">
@@ -25686,28 +25686,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2272.638178601716</v>
+        <v>2383.514955530902</v>
       </c>
       <c r="AB4" t="n">
-        <v>3109.523817683369</v>
+        <v>3261.23031541606</v>
       </c>
       <c r="AC4" t="n">
-        <v>2812.755228767639</v>
+        <v>2949.983071278124</v>
       </c>
       <c r="AD4" t="n">
-        <v>2272638.178601716</v>
+        <v>2383514.955530902</v>
       </c>
       <c r="AE4" t="n">
-        <v>3109523.817683369</v>
+        <v>3261230.31541606</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.203241667279649e-06</v>
+        <v>1.747310267537062e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.67291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2812755.228767639</v>
+        <v>2949983.071278124</v>
       </c>
     </row>
     <row r="5">
@@ -25792,28 +25792,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1997.304885717387</v>
+        <v>2108.010980937431</v>
       </c>
       <c r="AB5" t="n">
-        <v>2732.800659511252</v>
+        <v>2884.273622999539</v>
       </c>
       <c r="AC5" t="n">
-        <v>2471.986000077311</v>
+        <v>2609.002596523917</v>
       </c>
       <c r="AD5" t="n">
-        <v>1997304.885717387</v>
+        <v>2108010.980937431</v>
       </c>
       <c r="AE5" t="n">
-        <v>2732800.659511251</v>
+        <v>2884273.622999539</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.287757717846427e-06</v>
+        <v>1.870041857493455e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.9875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2471986.000077311</v>
+        <v>2609002.596523917</v>
       </c>
     </row>
     <row r="6">
@@ -25898,28 +25898,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1836.752807563646</v>
+        <v>1930.57170831997</v>
       </c>
       <c r="AB6" t="n">
-        <v>2513.126223123511</v>
+        <v>2641.493382136099</v>
       </c>
       <c r="AC6" t="n">
-        <v>2273.276983583409</v>
+        <v>2389.392961104275</v>
       </c>
       <c r="AD6" t="n">
-        <v>1836752.807563646</v>
+        <v>1930571.70831997</v>
       </c>
       <c r="AE6" t="n">
-        <v>2513126.223123511</v>
+        <v>2641493.382136099</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.342174192509598e-06</v>
+        <v>1.949063775939062e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>24</v>
+        <v>23.01458333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2273276.983583409</v>
+        <v>2389392.961104275</v>
       </c>
     </row>
     <row r="7">
@@ -26004,28 +26004,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1712.870534465933</v>
+        <v>1806.604094367686</v>
       </c>
       <c r="AB7" t="n">
-        <v>2343.625031771053</v>
+        <v>2471.875423661444</v>
       </c>
       <c r="AC7" t="n">
-        <v>2119.952748037214</v>
+        <v>2235.963102526141</v>
       </c>
       <c r="AD7" t="n">
-        <v>1712870.534465933</v>
+        <v>1806604.094367685</v>
       </c>
       <c r="AE7" t="n">
-        <v>2343625.031771053</v>
+        <v>2471875.423661443</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.379242635740641e-06</v>
+        <v>2.002893420656778e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.39791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2119952.748037214</v>
+        <v>2235963.102526141</v>
       </c>
     </row>
     <row r="8">
@@ -26110,28 +26110,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1610.793692445518</v>
+        <v>1712.970804824854</v>
       </c>
       <c r="AB8" t="n">
-        <v>2203.958993206279</v>
+        <v>2343.762226099745</v>
       </c>
       <c r="AC8" t="n">
-        <v>1993.616240170546</v>
+        <v>2120.076848731729</v>
       </c>
       <c r="AD8" t="n">
-        <v>1610793.692445518</v>
+        <v>1712970.804824854</v>
       </c>
       <c r="AE8" t="n">
-        <v>2203958.993206279</v>
+        <v>2343762.226099745</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.405783641094067e-06</v>
+        <v>2.041435446274663e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.975</v>
       </c>
       <c r="AH8" t="n">
-        <v>1993616.240170546</v>
+        <v>2120076.848731729</v>
       </c>
     </row>
     <row r="9">
@@ -26216,28 +26216,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1545.040033613985</v>
+        <v>1638.858844861759</v>
       </c>
       <c r="AB9" t="n">
-        <v>2113.99193634628</v>
+        <v>2242.35897288932</v>
       </c>
       <c r="AC9" t="n">
-        <v>1912.235512947708</v>
+        <v>2028.351379687347</v>
       </c>
       <c r="AD9" t="n">
-        <v>1545040.033613985</v>
+        <v>1638858.844861759</v>
       </c>
       <c r="AE9" t="n">
-        <v>2113991.93634628</v>
+        <v>2242358.97288932</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.065120489950457e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.72083333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1912235.512947708</v>
+        <v>2028351.379687347</v>
       </c>
     </row>
     <row r="10">
@@ -26322,28 +26322,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1549.243815837573</v>
+        <v>1643.062627085346</v>
       </c>
       <c r="AB10" t="n">
-        <v>2119.743736642376</v>
+        <v>2248.110773185415</v>
       </c>
       <c r="AC10" t="n">
-        <v>1917.438369496246</v>
+        <v>2033.554236235885</v>
       </c>
       <c r="AD10" t="n">
-        <v>1549243.815837573</v>
+        <v>1643062.627085346</v>
       </c>
       <c r="AE10" t="n">
-        <v>2119743.736642376</v>
+        <v>2248110.773185415</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.422093756115726e-06</v>
+        <v>2.065120489950457e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.72083333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1917438.369496246</v>
+        <v>2033554.236235885</v>
       </c>
     </row>
   </sheetData>
@@ -26619,28 +26619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1044.975933961864</v>
+        <v>1151.710893515781</v>
       </c>
       <c r="AB2" t="n">
-        <v>1429.782173931178</v>
+        <v>1575.821654406931</v>
       </c>
       <c r="AC2" t="n">
-        <v>1293.32576996307</v>
+        <v>1425.427447389915</v>
       </c>
       <c r="AD2" t="n">
-        <v>1044975.933961864</v>
+        <v>1151710.893515781</v>
       </c>
       <c r="AE2" t="n">
-        <v>1429782.173931178</v>
+        <v>1575821.654406931</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.338996431672356e-06</v>
+        <v>2.232027275473447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.64375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1293325.76996307</v>
+        <v>1425427.447389915</v>
       </c>
     </row>
   </sheetData>
@@ -26916,28 +26916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2524.972624113156</v>
+        <v>2651.968028380189</v>
       </c>
       <c r="AB2" t="n">
-        <v>3454.778938242204</v>
+        <v>3628.539653002191</v>
       </c>
       <c r="AC2" t="n">
-        <v>3125.059685188931</v>
+        <v>3282.236921206913</v>
       </c>
       <c r="AD2" t="n">
-        <v>2524972.624113156</v>
+        <v>2651968.02838019</v>
       </c>
       <c r="AE2" t="n">
-        <v>3454778.938242204</v>
+        <v>3628539.653002191</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.060631841571594e-06</v>
+        <v>1.614182622896841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.075</v>
       </c>
       <c r="AH2" t="n">
-        <v>3125059.685188931</v>
+        <v>3282236.921206913</v>
       </c>
     </row>
     <row r="3">
@@ -27022,28 +27022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1494.894921972152</v>
+        <v>1590.120162335922</v>
       </c>
       <c r="AB3" t="n">
-        <v>2045.38118235173</v>
+        <v>2175.672557258551</v>
       </c>
       <c r="AC3" t="n">
-        <v>1850.1728730186</v>
+        <v>1968.029421969406</v>
       </c>
       <c r="AD3" t="n">
-        <v>1494894.921972152</v>
+        <v>1590120.162335922</v>
       </c>
       <c r="AE3" t="n">
-        <v>2045381.18235173</v>
+        <v>2175672.557258551</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.398009114040711e-06</v>
+        <v>2.127639327886045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1850172.8730186</v>
+        <v>1968029.421969406</v>
       </c>
     </row>
     <row r="4">
@@ -27128,28 +27128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1247.285284584692</v>
+        <v>1342.510435439911</v>
       </c>
       <c r="AB4" t="n">
-        <v>1706.590752711967</v>
+        <v>1836.882005149239</v>
       </c>
       <c r="AC4" t="n">
-        <v>1543.716126488301</v>
+        <v>1661.572564657881</v>
       </c>
       <c r="AD4" t="n">
-        <v>1247285.284584692</v>
+        <v>1342510.435439911</v>
       </c>
       <c r="AE4" t="n">
-        <v>1706590.752711967</v>
+        <v>1836882.005149239</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.503010849857575e-06</v>
+        <v>2.287442164918018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.63541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1543716.126488301</v>
+        <v>1661572.564657881</v>
       </c>
     </row>
     <row r="5">
@@ -27234,28 +27234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1250.572344772291</v>
+        <v>1345.79749562751</v>
       </c>
       <c r="AB5" t="n">
-        <v>1711.088253475501</v>
+        <v>1841.379505912773</v>
       </c>
       <c r="AC5" t="n">
-        <v>1547.784392091245</v>
+        <v>1665.640830260825</v>
       </c>
       <c r="AD5" t="n">
-        <v>1250572.344772291</v>
+        <v>1345797.49562751</v>
       </c>
       <c r="AE5" t="n">
-        <v>1711088.253475501</v>
+        <v>1841379.505912773</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.504970446793505e-06</v>
+        <v>2.290424488470714e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.60625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1547784.392091245</v>
+        <v>1665640.830260825</v>
       </c>
     </row>
   </sheetData>
@@ -27531,28 +27531,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3685.184601602667</v>
+        <v>3840.172211309668</v>
       </c>
       <c r="AB2" t="n">
-        <v>5042.232150783439</v>
+        <v>5254.293035955337</v>
       </c>
       <c r="AC2" t="n">
-        <v>4561.008591129748</v>
+        <v>4752.830683050154</v>
       </c>
       <c r="AD2" t="n">
-        <v>3685184.601602667</v>
+        <v>3840172.211309668</v>
       </c>
       <c r="AE2" t="n">
-        <v>5042232.150783438</v>
+        <v>5254293.035955338</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.806040723220752e-07</v>
+        <v>1.314663236768378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.19375</v>
       </c>
       <c r="AH2" t="n">
-        <v>4561008.591129748</v>
+        <v>4752830.683050154</v>
       </c>
     </row>
     <row r="3">
@@ -27637,28 +27637,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1947.757122689413</v>
+        <v>2053.832746332798</v>
       </c>
       <c r="AB3" t="n">
-        <v>2665.007224243345</v>
+        <v>2810.144572238461</v>
       </c>
       <c r="AC3" t="n">
-        <v>2410.66267512269</v>
+        <v>2541.948318326699</v>
       </c>
       <c r="AD3" t="n">
-        <v>1947757.122689413</v>
+        <v>2053832.746332798</v>
       </c>
       <c r="AE3" t="n">
-        <v>2665007.224243345</v>
+        <v>2810144.572238461</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.258410104421691e-06</v>
+        <v>1.878693902355669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.02708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2410662.67512269</v>
+        <v>2541948.3183267</v>
       </c>
     </row>
     <row r="4">
@@ -27743,28 +27743,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1581.500617604125</v>
+        <v>1679.495271440499</v>
       </c>
       <c r="AB4" t="n">
-        <v>2163.878915889031</v>
+        <v>2297.959524486968</v>
       </c>
       <c r="AC4" t="n">
-        <v>1957.361349179714</v>
+        <v>2078.64549267638</v>
       </c>
       <c r="AD4" t="n">
-        <v>1581500.617604125</v>
+        <v>1679495.271440499</v>
       </c>
       <c r="AE4" t="n">
-        <v>2163878.915889031</v>
+        <v>2297959.524486968</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.392992694299873e-06</v>
+        <v>2.079613690013896e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.51458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1957361.349179714</v>
+        <v>2078645.49267638</v>
       </c>
     </row>
     <row r="5">
@@ -27849,28 +27849,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1388.415821056407</v>
+        <v>1478.15900239373</v>
       </c>
       <c r="AB5" t="n">
-        <v>1899.691778952411</v>
+        <v>2022.482358847871</v>
       </c>
       <c r="AC5" t="n">
-        <v>1718.38786180335</v>
+        <v>1829.459481091248</v>
       </c>
       <c r="AD5" t="n">
-        <v>1388415.821056407</v>
+        <v>1478159.00239373</v>
       </c>
       <c r="AE5" t="n">
-        <v>1899691.778952411</v>
+        <v>2022482.358847871</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.464214555532135e-06</v>
+        <v>2.185941568295645e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.36875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1718387.86180335</v>
+        <v>1829459.481091248</v>
       </c>
     </row>
     <row r="6">
@@ -27955,28 +27955,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1351.085829119747</v>
+        <v>1440.829010457069</v>
       </c>
       <c r="AB6" t="n">
-        <v>1848.61523710166</v>
+        <v>1971.405816997119</v>
       </c>
       <c r="AC6" t="n">
-        <v>1672.185993420457</v>
+        <v>1783.257612708355</v>
       </c>
       <c r="AD6" t="n">
-        <v>1351085.829119747</v>
+        <v>1440829.010457069</v>
       </c>
       <c r="AE6" t="n">
-        <v>1848615.23710166</v>
+        <v>1971405.816997119</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.207770470459448e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.14791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1672185.993420457</v>
+        <v>1783257.612708355</v>
       </c>
     </row>
     <row r="7">
@@ -28061,28 +28061,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1358.560566765636</v>
+        <v>1448.303748102958</v>
       </c>
       <c r="AB7" t="n">
-        <v>1858.842502910916</v>
+        <v>1981.633082806375</v>
       </c>
       <c r="AC7" t="n">
-        <v>1681.437183334936</v>
+        <v>1792.508802622834</v>
       </c>
       <c r="AD7" t="n">
-        <v>1358560.566765636</v>
+        <v>1448303.748102958</v>
       </c>
       <c r="AE7" t="n">
-        <v>1858842.502910916</v>
+        <v>1981633.082806375</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.478836262142731e-06</v>
+        <v>2.207770470459448e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22.14791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1681437.183334936</v>
+        <v>1792508.802622834</v>
       </c>
     </row>
   </sheetData>
